--- a/example_data/Summary/before/Averages by Sample/Avg Percentage Change_before_.xlsx
+++ b/example_data/Summary/before/Averages by Sample/Avg Percentage Change_before_.xlsx
@@ -427,7 +427,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -438,103 +438,211 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Animal ID_Event 6</t>
+          <t>Animal ID_Event 10</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Event 6</t>
+          <t>Event 10</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Animal ID_Event 8</t>
+          <t>Animal ID_Event 15</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Event 8</t>
+          <t>Event 15</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Animal ID_Group 1</t>
+          <t>Animal ID_Group 3</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Group 1</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Animal ID_Group 2</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Group 2</t>
+          <t>Group 3</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>10</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>11.39576546364805</v>
+        <v>0.7688806069131887</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>23</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>150.9782283079869</v>
+        <v>-23.42840669579617</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>10</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>32.73282050593792</v>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>21</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>32.73282050593792</v>
+        <v>0.7688806069131887</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>210</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-10.92875806049104</v>
+        <v>4.442563017370935</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>-32.36543040896893</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>210</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>-10.92875806049104</v>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>36</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>-10.92875806049104</v>
+        <v>4.442563017370935</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>211</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>54.31414246345222</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>44.89343278964751</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>211</t>
+        </is>
+      </c>
+      <c r="F4" t="n">
+        <v>54.31414246345222</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>-22.90542921930565</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="F5" t="n">
+        <v>-23.42840669579617</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>-7.759029647670937</v>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="F6" t="n">
+        <v>-22.90542921930565</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>310</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>157.3665140898933</v>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F7" t="n">
+        <v>-17.45258296118638</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>13.83397267181109</v>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>310</t>
+        </is>
+      </c>
+      <c r="F8" t="n">
+        <v>157.3665140898933</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>7.822232940894988</v>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="F9" t="n">
+        <v>13.83397267181109</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="F10" t="n">
+        <v>31.45776797429487</v>
       </c>
     </row>
   </sheetData>
@@ -548,7 +656,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -559,103 +667,211 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Animal ID_Event 6</t>
+          <t>Animal ID_Event 10</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Event 6</t>
+          <t>Event 10</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Animal ID_Event 8</t>
+          <t>Animal ID_Event 15</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Event 8</t>
+          <t>Event 15</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Animal ID_Group 1</t>
+          <t>Animal ID_Group 3</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Group 1</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Animal ID_Group 2</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Group 2</t>
+          <t>Group 3</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>10</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>11.39576546364804</v>
+        <v>0.7688806069131939</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>23</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>150.9782283079869</v>
+        <v>-23.42840669579617</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>10</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>32.73282050593792</v>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>21</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>32.73282050593792</v>
+        <v>0.7688806069131939</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>210</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-10.92875806049104</v>
+        <v>4.442563017370932</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>-32.36543040896893</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>210</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>-10.92875806049104</v>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>36</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>-10.92875806049104</v>
+        <v>4.442563017370932</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>211</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>54.31414246345222</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>44.89343278964753</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>211</t>
+        </is>
+      </c>
+      <c r="F4" t="n">
+        <v>54.31414246345222</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>-22.90542921930564</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="F5" t="n">
+        <v>-23.42840669579617</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>-7.759029647670941</v>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="F6" t="n">
+        <v>-22.90542921930564</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>310</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>157.3665140898933</v>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F7" t="n">
+        <v>-17.45258296118638</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>13.83397267181109</v>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>310</t>
+        </is>
+      </c>
+      <c r="F8" t="n">
+        <v>157.3665140898933</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>7.822232940894988</v>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="F9" t="n">
+        <v>13.83397267181109</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="F10" t="n">
+        <v>31.45776797429488</v>
       </c>
     </row>
   </sheetData>
@@ -669,7 +885,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -680,105 +896,225 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Animal ID_Event 6</t>
+          <t>Animal ID_Event 10</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Event 6</t>
+          <t>Event 10</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Animal ID_Event 8</t>
+          <t>Animal ID_Event 15</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Event 8</t>
+          <t>Event 15</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Animal ID_Group 1</t>
+          <t>Animal ID_Group 3</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Group 1</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Animal ID_Group 2</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Group 2</t>
+          <t>Group 3</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>10</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-57.33631538708681</v>
+        <v>4.327660269200251</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>23</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>-65.03150366372724</v>
+        <v>-3287.284655558239</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>10</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>-62.55540574558724</v>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>21</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>-62.55540574558724</v>
+        <v>4.327660269200251</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>210</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>303.655764511299</v>
-      </c>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr"/>
+        <v>37.01258102970935</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>-205.2647784611327</v>
+      </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>210</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>303.655764511299</v>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>36</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>303.655764511299</v>
+        <v>37.01258102970935</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>211</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>-593.1512720582339</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>-427.0603321283841</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>211</t>
+        </is>
+      </c>
+      <c r="F4" t="n">
+        <v>-593.1512720582339</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>-546.3034877034718</v>
+      </c>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="F5" t="n">
+        <v>-3287.284655558239</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>81.63667406263065</v>
+      </c>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="F6" t="n">
+        <v>-546.3034877034718</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>310</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>-78.61019218895015</v>
+      </c>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F7" t="n">
+        <v>-3866.183910332504</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>-147.1455726117743</v>
+      </c>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>310</t>
+        </is>
+      </c>
+      <c r="F8" t="n">
+        <v>-78.61019218895015</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>24.01501038460225</v>
+      </c>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="F9" t="n">
+        <v>-147.1455726117743</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr"/>
+      <c r="B10" t="inlineStr"/>
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="F10" t="n">
+        <v>-1420.838344807795</v>
       </c>
     </row>
   </sheetData>
